--- a/doc/01.matériel necessaire.xlsx
+++ b/doc/01.matériel necessaire.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\Pierrard\4eme\Quadri2\Conception\Documents a remettre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\conception industrielle\SpecRam\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5772B967-36E6-4DD0-9D2F-A335D479DC02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4988AB-1794-4932-BF8D-0709AD14344B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{7B5800DD-4CB9-4C68-A0E7-B3B1F8AC9D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{7B5800DD-4CB9-4C68-A0E7-B3B1F8AC9D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>NOM</t>
   </si>
@@ -53,14 +52,162 @@
     <t>ref du vendeur</t>
   </si>
   <si>
-    <t>info en plus</t>
+    <t>laser</t>
+  </si>
+  <si>
+    <t>prisme</t>
+  </si>
+  <si>
+    <t>bouton</t>
+  </si>
+  <si>
+    <t>boite</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.org/documentation/hardware/raspberrypi/mechanical/rpi_MECH_4b_4p0.pdf</t>
+  </si>
+  <si>
+    <t>https://www.edmundoptics.fr/p/409nm-252-x-356mm-high-performance-fluorescence-dichroic-filter/3960/</t>
+  </si>
+  <si>
+    <t>https://www.edmundoptics.fr/p/405nm-125mm-diameter-od-4-notch-filter/21644/</t>
+  </si>
+  <si>
+    <t>https://fr.misumi-ec.com/vona2/detail/221000025406/</t>
+  </si>
+  <si>
+    <t>https://fr.misumi-ec.com/vona2/detail/221000025967/</t>
+  </si>
+  <si>
+    <t>https://www.cdiscount.com/photo-numerique/materiel-observation/prisme-triangulaire-de-couleur-k9-verre-optique-re/f-1124003-auc7147871086573.html#mpos=0|mp</t>
+  </si>
+  <si>
+    <t>Kyrio Lot de 2 mini ventilateurs de refroidissement USB DC 5 V 4010 pour imprimante 3D 40 x 40 x 10 mm Double roulement à billes pour boîtier d'ordinateur et petits appareils: Amazon.fr: Informatique</t>
+  </si>
+  <si>
+    <t>https://benl.rs-online.com/web/p/raspberry-pi-cameras/2012852/?cm_mmc=BE-PLA-DS3A-_-google-_-CSS_BE_NL_Raspberry_Pi_%26_Arduino_%26_Development_Tools_Whoop-_-(BE:Whoop!)+Raspberry+Pi+Cameras-_-2012852&amp;matchtype=&amp;pla-310309076544&amp;gclsrc=ds&amp;gclsrc=ds</t>
+  </si>
+  <si>
+    <t>SC0124 | CGL, Camera Lens, CSI-2 with 3 Megapixels Resolution | RS Components (rs-online.com)</t>
+  </si>
+  <si>
+    <t>rpi_DATA_2711_1p0_preliminary.pdf (raspberrypi.org)</t>
+  </si>
+  <si>
+    <t>Microsoft Word - 28BYJ-48 Stepper Motor.docx (components101.com)</t>
+  </si>
+  <si>
+    <t>https://learn.adafruit.com/adafruit-dc-and-stepper-motor-hat-for-raspberry-pi - https://components101.com/motors/28byj-48-stepper-motor</t>
+  </si>
+  <si>
+    <t>alimentateur à découpage</t>
+  </si>
+  <si>
+    <t>Raspberry pi</t>
+  </si>
+  <si>
+    <t>moteur pas à pas</t>
+  </si>
+  <si>
+    <t>miroir filtre dichroïde</t>
+  </si>
+  <si>
+    <t>lamelle échantillon</t>
+  </si>
+  <si>
+    <t>filtre coupe-bande</t>
+  </si>
+  <si>
+    <t>lentille 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miroir </t>
+  </si>
+  <si>
+    <t>miroir</t>
+  </si>
+  <si>
+    <t>lentille 2</t>
+  </si>
+  <si>
+    <t>objectif caméra rasberry</t>
+  </si>
+  <si>
+    <t>caméra rasberry</t>
+  </si>
+  <si>
+    <t>câble</t>
+  </si>
+  <si>
+    <t>ventilateur</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>A700000006829447.pdf (rs-online.com)</t>
+  </si>
+  <si>
+    <t>A700000006829439.pdf (rs-online.com)</t>
+  </si>
+  <si>
+    <t>Amazon.com: Raspberry Pi 4 Model B 2019 Quad Core 64 Bit WiFi Bluetooth (4GB): Computers &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Amazon.com : Stepper Motor 28Byj-48 5V Dc</t>
+  </si>
+  <si>
+    <t>20€ max</t>
+  </si>
+  <si>
+    <t>Globe Scientific 1419-10 Cover Glass, 24 x 60mm, No. 1 Thickness (Case of 10): Amazon.com: Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>33 dollars</t>
+  </si>
+  <si>
+    <t>RS PRO 50W Embedded Switch Mode Power Supply SMPS, 5V dc, Enclosed | RS Components (rs-online.com)</t>
+  </si>
+  <si>
+    <t>PowerPoint Presentation (rs-online.com)</t>
+  </si>
+  <si>
+    <t>405nm 100/180/500mW Blue Violet Dot Laser Module Variable Focus w/ Heat Sink for DIY Laser Engraver Machine (renhotecic.com)</t>
+  </si>
+  <si>
+    <t>équerre (36 pièces)</t>
+  </si>
+  <si>
+    <t>1€/pièce = 36€</t>
+  </si>
+  <si>
+    <t>4,3€x2</t>
+  </si>
+  <si>
+    <t>RS PRO Illuminated DPST, On-None-Off Rocker Switch | RS Components (rs-online.com)</t>
+  </si>
+  <si>
+    <t>http://www.everel.eu/appliances/switches/products/code/SX821128 (rs-online.com)</t>
+  </si>
+  <si>
+    <t>planche de bois + 2 carrés de bois</t>
+  </si>
+  <si>
+    <t>5€/mètrex2+10€x2</t>
+  </si>
+  <si>
+    <t>2,50€ /mètre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +218,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,17 +269,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,18 +612,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBEBE3A-75D3-48D8-936A-F09342D09DC9}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.44140625" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="29.44140625" style="1"/>
+    <col min="1" max="2" width="29.42578125" style="1"/>
+    <col min="3" max="3" width="74.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="1"/>
+    <col min="6" max="6" width="40.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="29.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,91 +644,329 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>70</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="9">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="9">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" tooltip="https://www.raspberrypi.org/documentation/hardware/raspberrypi/mechanical/rpi_mech_4b_4p0.pdf" xr:uid="{345B0E2B-148E-48D5-AD13-2F4208861433}"/>
+    <hyperlink ref="C6" r:id="rId2" tooltip="https://www.edmundoptics.fr/p/409nm-252-x-356mm-high-performance-fluorescence-dichroic-filter/3960/" xr:uid="{4A6E912A-C010-46A3-8A18-1DAEA878520F}"/>
+    <hyperlink ref="C8" r:id="rId3" tooltip="https://www.edmundoptics.fr/p/405nm-125mm-diameter-od-4-notch-filter/21644/" xr:uid="{2178FF65-B3C7-4B39-B957-824421B47DD1}"/>
+    <hyperlink ref="C13" r:id="rId4" tooltip="https://fr.misumi-ec.com/vona2/detail/221000025406/" xr:uid="{09E8CB51-19E4-437F-9816-9BDC109C6CB2}"/>
+    <hyperlink ref="C9" r:id="rId5" tooltip="https://fr.misumi-ec.com/vona2/detail/221000025406/" xr:uid="{818844EA-8841-4E59-9B58-1A278241E2DD}"/>
+    <hyperlink ref="C10" r:id="rId6" tooltip="https://fr.misumi-ec.com/vona2/detail/221000025967/" xr:uid="{209EA1E4-174A-4A55-887D-A25096D837AA}"/>
+    <hyperlink ref="C12" r:id="rId7" tooltip="https://fr.misumi-ec.com/vona2/detail/221000025967/" xr:uid="{B841C789-70C6-458C-87E0-C89AB262BFC4}"/>
+    <hyperlink ref="C20" r:id="rId8" tooltip="https://www.amazon.fr/kyrio-ventilateurs-refroidissement-balais-imprimante/dp/b08drh5hqs/ref=sr_1_11?__mk_fr_fr=%c3%85m%c3%85%c5%bd%c3%95%c3%91&amp;dchild=1&amp;keywords=ventilateur+5v&amp;qid=1620123863&amp;sr=8-11" display="https://www.amazon.fr/Kyrio-ventilateurs-refroidissement-balais-imprimante/dp/B08DRH5HQS/ref=sr_1_11?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=ventilateur+5v&amp;qid=1620123863&amp;sr=8-11" xr:uid="{C7801EFA-0A6D-40EB-8CE2-396755887A97}"/>
+    <hyperlink ref="C15" r:id="rId9" tooltip="https://benl.rs-online.com/web/p/raspberry-pi-cameras/2012852/?cm_mmc=be-pla-ds3a-_-google-_-css_be_nl_raspberry_pi_%26_arduino_%26_development_tools_whoop-_-(be:whoop!)+raspberry+pi+cameras-_-2012852&amp;matchtype=&amp;pla-310309076544&amp;gclsrc=ds&amp;gclsrc=ds" xr:uid="{DA4E1507-0698-42B8-B81D-B402168F8010}"/>
+    <hyperlink ref="C14" r:id="rId10" tooltip="https://benl.rs-online.com/web/p/raspberry-pi-cameras/2012855/" display="https://benl.rs-online.com/web/p/raspberry-pi-cameras/2012855/" xr:uid="{B6A4FC56-9B70-4309-B483-706AAE915863}"/>
+    <hyperlink ref="C3" r:id="rId11" display="https://www.raspberrypi.org/documentation/hardware/raspberrypi/bcm2711/rpi_DATA_2711_1p0_preliminary.pdf" xr:uid="{EC68DA56-1DA5-4D8B-9CB4-27E81E3935C8}"/>
+    <hyperlink ref="D5" r:id="rId12" display="https://components101.com/asset/sites/default/files/component_datasheet/28byj48-step-motor-datasheet.pdf" xr:uid="{D02F76F0-823F-45B1-B445-D6A47F6F113E}"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://docs.rs-online.com/4798/A700000006829447.pdf" xr:uid="{59A27B2A-4CC4-43B0-99F4-343F5F0B7B48}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://docs.rs-online.com/07f2/A700000006829439.pdf" xr:uid="{7A47FAAB-1913-473F-B714-39F85B3822D4}"/>
+    <hyperlink ref="F3" r:id="rId15" display="https://www.amazon.com/Raspberry-Model-2019-Quad-Bluetooth/dp/B07TC2BK1X" xr:uid="{183D53ED-BAF2-47E8-9467-CF44296A1E4F}"/>
+    <hyperlink ref="F5" r:id="rId16" display="https://www.amazon.com/s?k=Stepper+Motor+28Byj-48+5V+Dc&amp;ref=nb_sb_noss" xr:uid="{9D1B6CFB-A3FF-419F-83E1-6C6E9F3ED311}"/>
+    <hyperlink ref="C11" r:id="rId17" location="mpos=0|mp" xr:uid="{53A70D37-A856-4DB9-B8C9-0F2887F8ABCD}"/>
+    <hyperlink ref="C7" r:id="rId18" display="https://www.amazon.com/Globe-Scientific-1419-10-Cover-Thickness/dp/B00N510QEG/ref=sr_1_3?dchild=1&amp;keywords=microscope+slide+60mm&amp;qid=1621609993&amp;sr=8-3" xr:uid="{B453705D-894D-4B3E-BA2A-FD0EA61B6812}"/>
+    <hyperlink ref="C2" r:id="rId19" display="https://benl.rs-online.com/web/p/embedded-switch-mode-power-supplies-smps/1618278/?cm_mmc=BE-PLA-DS3A-_-google-_-CSS_BE_NL_Power_Supplies_%26_Transformers_Whoop-_-(BE:Whoop!)+Embedded+Switch+Mode+Power+Supplies+(SMPS)-_-1618278&amp;matchtype=&amp;pla-333358219180&amp;gclid=CjwKCAjwtJ2FBhAuEiwAIKu19uiuzn2AZDLFY7LdBKvpVpu1rO8VkC3Ressua2LCGYM903KeDAPs2RoCRVYQAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{C5A6B449-8246-4DDB-A1E2-5AE11A4BB314}"/>
+    <hyperlink ref="D2" r:id="rId20" display="https://docs.rs-online.com/c88c/0900766b8162aef0.pdf" xr:uid="{18D31079-BE6E-4E10-88B4-F4B13A3C3E79}"/>
+    <hyperlink ref="C4" r:id="rId21" display="https://www.renhotecic.com/405nm-100-180-500mW-Blue-Violet-Dot-Laser-Module-Variable-Focus-w-Heat-Sink-for-DIY-Laser-Engraver-Machine-0017395" xr:uid="{3792A5B0-92F9-47B0-85D4-D42613C37EEF}"/>
+    <hyperlink ref="C16" r:id="rId22" display="https://benl.rs-online.com/web/p/rocker-switches/1858229/?cm_mmc=BE-PLA-DS3A-_-google-_-CSS_BE_NL_Switches_Whoop-_-(BE:Whoop!)+Rocker+Switches-_-1858229&amp;matchtype=&amp;pla-327041961066&amp;gclid=CjwKCAjwhMmEBhBwEiwAXwFoEW3SRiscn69qxydpc8sGrMxRgHVT1iukV4dseMAbwzd-7GRGOp2joxoC264QAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{535D49B7-9019-4E6C-B3EF-2B38A16DBE14}"/>
+    <hyperlink ref="D16" r:id="rId23" display="https://docs.rs-online.com/0efa/0900766b81725528.pdf" xr:uid="{6BFA0958-8255-48FC-9C80-DD9C1ED75732}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>